--- a/components list.xlsx
+++ b/components list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-Terra sense- Soil helth sensor module project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B35E0D-CC8D-4024-A5BA-406421C68A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8E7C6-61B9-4854-A536-FF3D3856FE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEDD1542-5A6E-405A-8831-7EF8107EF08C}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF2E87B-1508-4475-8E57-34DE6644D1D1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
